--- a/data/trans_dic/P0902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1347268466088317</v>
+        <v>0.1314103664246235</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2056246897631497</v>
+        <v>0.207171482723763</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.174775468858771</v>
+        <v>0.1784822714491489</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2316119576311546</v>
+        <v>0.230208164173975</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2122988181382465</v>
+        <v>0.2129710844623613</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3297049630731579</v>
+        <v>0.328894612480325</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3181649795080341</v>
+        <v>0.3183109737994451</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3900306635976696</v>
+        <v>0.3889357122673138</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1852787119449389</v>
+        <v>0.1835657763050443</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2849401667884526</v>
+        <v>0.2847177457884966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.267635154232553</v>
+        <v>0.2667047778127587</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3319873060080369</v>
+        <v>0.3318145428853363</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1787996292446886</v>
+        <v>0.1756316383782867</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.259017317042303</v>
+        <v>0.2648098722656045</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2345256606602381</v>
+        <v>0.2341166625469445</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3007325978478301</v>
+        <v>0.2975035866589704</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2616174942588785</v>
+        <v>0.259278638626925</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3803036573899368</v>
+        <v>0.3829320641199701</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3810043095572977</v>
+        <v>0.3829448423661855</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4416401053025935</v>
+        <v>0.4410271946720742</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2175032826840936</v>
+        <v>0.2161204865898897</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3233527373674632</v>
+        <v>0.3232590540315545</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3093147820710114</v>
+        <v>0.3097213861023329</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3730717636534653</v>
+        <v>0.3742918449130491</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.08837412882864523</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1256221049213188</v>
+        <v>0.1256221049213187</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04028323729593603</v>
+        <v>0.04022159375742484</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05053978368568567</v>
+        <v>0.05209059285044536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05274259771785542</v>
+        <v>0.05196421323722182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09382815196511247</v>
+        <v>0.09259944779391764</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07683202854578801</v>
+        <v>0.07974715166120135</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09836234250851104</v>
+        <v>0.09727826527794287</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1002876039033525</v>
+        <v>0.1011139690268429</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.134473633428385</v>
+        <v>0.1327842249085657</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06144850396597052</v>
+        <v>0.06140781625646525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07704841160353787</v>
+        <v>0.07683900349316311</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07849940159077709</v>
+        <v>0.07895807312544011</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1158062646978586</v>
+        <v>0.1169512144967509</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06169983843558496</v>
+        <v>0.06078408821725014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07354942329838596</v>
+        <v>0.07442946001220549</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07469218585401705</v>
+        <v>0.07320152138671694</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1199105717612392</v>
+        <v>0.1205720314277139</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1064149741845079</v>
+        <v>0.1083887246537189</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1293308179764061</v>
+        <v>0.1304170856850827</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1309399230460898</v>
+        <v>0.130439330089879</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1605990477110566</v>
+        <v>0.1601265617693522</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07938513759182947</v>
+        <v>0.07929371599414317</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09538040741241405</v>
+        <v>0.0955457592137831</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0986466799532137</v>
+        <v>0.09825703856615041</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1354235332454266</v>
+        <v>0.1353553568261567</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.04882629436696809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07393882389702154</v>
+        <v>0.07393882389702153</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08235300405649054</v>
@@ -957,7 +957,7 @@
         <v>0.08928995965217973</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09810846931336921</v>
+        <v>0.0981084693133692</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.06060205661967993</v>
@@ -969,7 +969,7 @@
         <v>0.06909973681118037</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.08621823041714649</v>
+        <v>0.08621823041714648</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02705646804890097</v>
+        <v>0.02639538544992794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03729522539667857</v>
+        <v>0.03690858731424074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03191147793760397</v>
+        <v>0.03096869737006207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05644780902848431</v>
+        <v>0.0555349135562458</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05849410774592197</v>
+        <v>0.05978423610330498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05349149955295485</v>
+        <v>0.05233744598630252</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06319972034215557</v>
+        <v>0.06650001353636299</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08075218853733669</v>
+        <v>0.08076026931925617</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04647763336744352</v>
+        <v>0.04674968429730084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05038141062507596</v>
+        <v>0.05160571756852526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05283652794452174</v>
+        <v>0.05428082198025085</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07242670890543774</v>
+        <v>0.07374215131176191</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06347377936170959</v>
+        <v>0.0639693216633966</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08861432660933478</v>
+        <v>0.08852911612419646</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07048535701750817</v>
+        <v>0.07189300483482633</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09629405834588931</v>
+        <v>0.09665729898970854</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1121390646205714</v>
+        <v>0.1104514521144364</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1054184739830223</v>
+        <v>0.1048160442011278</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1194160328541021</v>
+        <v>0.1212839737678088</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1175642511318745</v>
+        <v>0.1165416015021921</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07662453195799743</v>
+        <v>0.07907333703867407</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08823914772445321</v>
+        <v>0.0867987887693335</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.08568781044437172</v>
+        <v>0.08837009298008339</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1007870021259335</v>
+        <v>0.1009296130744277</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09814455131390622</v>
+        <v>0.09903178280570279</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08293706680754243</v>
+        <v>0.08231603615595512</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1141440081320732</v>
+        <v>0.1151911899574762</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1864079658924072</v>
+        <v>0.1848279791591825</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1635385077568094</v>
+        <v>0.1645113332012593</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1853715915106875</v>
+        <v>0.1852768523129835</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.147009051156319</v>
+        <v>0.1465389258051525</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1268568286076587</v>
+        <v>0.1267237741885914</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1539238318786035</v>
+        <v>0.1535654659183271</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1203244832339412</v>
+        <v>0.1217129076567216</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1031549857122614</v>
+        <v>0.1022980002588918</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1370216281631165</v>
+        <v>0.137364725126463</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2129656484157716</v>
+        <v>0.2124541821049434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.19020051760593</v>
+        <v>0.1917190984722603</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2069736544803955</v>
+        <v>0.2079061588856879</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1639868401947155</v>
+        <v>0.1646727055544082</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1441137877901293</v>
+        <v>0.1435908112316372</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1701110481024549</v>
+        <v>0.1695138536185702</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>139001</v>
+        <v>135579</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>200411</v>
+        <v>201918</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>131841</v>
+        <v>134638</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>133762</v>
+        <v>132951</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>279197</v>
+        <v>280081</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>441078</v>
+        <v>439994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>316466</v>
+        <v>316611</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>320620</v>
+        <v>319720</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>434819</v>
+        <v>430799</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>658907</v>
+        <v>658393</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>468096</v>
+        <v>466469</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>464637</v>
+        <v>464396</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>184472</v>
+        <v>181203</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>252449</v>
+        <v>258095</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>176914</v>
+        <v>176605</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>173681</v>
+        <v>171816</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>344057</v>
+        <v>340981</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>508769</v>
+        <v>512285</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>378970</v>
+        <v>380900</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>363045</v>
+        <v>362541</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>510444</v>
+        <v>507199</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>747734</v>
+        <v>747517</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>540994</v>
+        <v>541705</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>522138</v>
+        <v>523845</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68216</v>
+        <v>68112</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>99211</v>
+        <v>102256</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>109514</v>
+        <v>107898</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>209085</v>
+        <v>206347</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>121984</v>
+        <v>126612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>172609</v>
+        <v>170706</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>199402</v>
+        <v>201045</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>291768</v>
+        <v>288102</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>201618</v>
+        <v>201484</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>286455</v>
+        <v>285677</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>319075</v>
+        <v>320940</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>509326</v>
+        <v>514362</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>104483</v>
+        <v>102933</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>144380</v>
+        <v>146108</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>155090</v>
+        <v>151995</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>267207</v>
+        <v>268681</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>168952</v>
+        <v>172086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>226953</v>
+        <v>228859</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>260348</v>
+        <v>259353</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>348452</v>
+        <v>347427</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>260469</v>
+        <v>260170</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>354611</v>
+        <v>355226</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>400968</v>
+        <v>399384</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>595604</v>
+        <v>595305</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14919</v>
+        <v>14555</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17946</v>
+        <v>17760</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17452</v>
+        <v>16936</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40168</v>
+        <v>39518</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27867</v>
+        <v>28482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24481</v>
+        <v>23953</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34705</v>
+        <v>36518</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>59343</v>
+        <v>59349</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>47771</v>
+        <v>48050</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>47300</v>
+        <v>48450</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>57910</v>
+        <v>59493</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>104763</v>
+        <v>106665</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35000</v>
+        <v>35273</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42640</v>
+        <v>42599</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38547</v>
+        <v>39317</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>68522</v>
+        <v>68780</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>53424</v>
+        <v>52620</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>48246</v>
+        <v>47970</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65576</v>
+        <v>66602</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>86395</v>
+        <v>85644</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>78756</v>
+        <v>81273</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>82843</v>
+        <v>81491</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>93916</v>
+        <v>96856</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>145785</v>
+        <v>145991</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>335543</v>
+        <v>338576</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>280130</v>
+        <v>278032</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>401501</v>
+        <v>405185</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>661801</v>
+        <v>656192</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>577634</v>
+        <v>581070</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>690809</v>
+        <v>690456</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1024528</v>
+        <v>1021251</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>876545</v>
+        <v>875626</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1115042</v>
+        <v>1112446</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>411373</v>
+        <v>416120</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>348418</v>
+        <v>345524</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>481973</v>
+        <v>483180</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>756089</v>
+        <v>754273</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>671807</v>
+        <v>677171</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>771312</v>
+        <v>774787</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1142848</v>
+        <v>1147628</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>995786</v>
+        <v>992172</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1232304</v>
+        <v>1227978</v>
       </c>
     </row>
     <row r="20">
